--- a/Blog-Skeleton/BlogIntegrationTests/DataDrivenTests/RegistrationUserData.xlsx
+++ b/Blog-Skeleton/BlogIntegrationTests/DataDrivenTests/RegistrationUserData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Key</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>RegisterWithPasswordMismatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>RegisterWithEmptyFields</t>
   </si>
 </sst>
 </file>
@@ -97,9 +103,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -405,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,13 +448,16 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>123456</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="2">
         <v>123456</v>
       </c>
     </row>
@@ -461,10 +471,10 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>123456</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E3" s="2">
         <v>123456</v>
       </c>
     </row>
@@ -475,10 +485,13 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
-        <v>123456</v>
-      </c>
-      <c r="E4">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E4" s="2">
         <v>123456</v>
       </c>
     </row>
@@ -492,7 +505,10 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
         <v>123456</v>
       </c>
     </row>
@@ -506,11 +522,28 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>123456</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E6" s="2">
         <v>123457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
